--- a/src/Example/Csv/AllType/Data所有Class类型.xlsx
+++ b/src/Example/Csv/AllType/Data所有Class类型.xlsx
@@ -721,7 +721,7 @@
   <dimension ref="A1:AW5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>2147483647</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -1090,7 +1090,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>231</v>
+        <v>1001</v>
       </c>
       <c r="C5">
         <v>10005</v>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:AV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1419,7 @@
         <v>5000</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>1234</v>
       </c>
       <c r="C4">
         <v>1000</v>

--- a/src/Example/Csv/AllType/Data所有Class类型.xlsx
+++ b/src/Example/Csv/AllType/Data所有Class类型.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="73">
   <si>
     <t>VarString</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,10 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,10 +284,6 @@
     <t>M1</t>
   </si>
   <si>
-    <t>A1\nX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,8 +292,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Data所有Class类型</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -721,7 +715,7 @@
   <dimension ref="A1:AW5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -775,7 +769,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>56</v>
@@ -876,7 +870,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -920,7 +914,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
@@ -982,22 +976,22 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2147483647</v>
+        <v>2147483646</v>
       </c>
       <c r="C4">
         <v>1000</v>
       </c>
       <c r="D4">
-        <v>123.4</v>
+        <v>6.5</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
         <v>52</v>
@@ -1096,22 +1090,22 @@
         <v>10005</v>
       </c>
       <c r="D5">
-        <v>123.4567</v>
+        <v>5.7</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>61</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
         <v>69</v>
-      </c>
-      <c r="I5" t="s">
-        <v>71</v>
       </c>
       <c r="J5">
         <v>1.2</v>
@@ -1196,7 +1190,7 @@
   <dimension ref="A1:AV10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1212,7 +1206,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>56</v>
@@ -1313,7 +1307,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1357,7 +1351,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>60</v>
@@ -1425,10 +1419,10 @@
         <v>1000</v>
       </c>
       <c r="D4">
-        <v>123.4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>62</v>
@@ -1578,10 +1572,10 @@
         <v>10005</v>
       </c>
       <c r="D10">
-        <v>123.4567</v>
+        <v>6.3</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>61</v>
@@ -1590,7 +1584,7 @@
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
         <v>42</v>

--- a/src/Example/Csv/AllType/Data所有Class类型.xlsx
+++ b/src/Example/Csv/AllType/Data所有Class类型.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="81">
   <si>
     <t>VarString</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,9 +130,6 @@
   <si>
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;long,Card.CardElement&gt;</t>
   </si>
   <si>
     <t>dict&lt;string,SingleClass&gt;</t>
@@ -174,128 +171,164 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Control</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌攻击</t>
+  </si>
+  <si>
+    <t>SingleClass</t>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3/V4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]]</t>
+  </si>
+  <si>
+    <t>list&lt;SingleClass&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarLong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##ID编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test.ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hand</t>
-  </si>
-  <si>
-    <t>j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list&lt;string&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自残</t>
-  </si>
-  <si>
     <t>手牌攻击</t>
-  </si>
-  <si>
-    <t>SingleClass</t>
-  </si>
-  <si>
-    <t>M2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V3/V4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data所有Class类型</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>浮点数列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VarListFloat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list&lt;float&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;long,string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data所有Class类型_big</t>
+  </si>
+  <si>
+    <t>dict&lt;int,float&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;long,string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;int,float&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data所有Class类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>]]</t>
-  </si>
-  <si>
-    <t>list&lt;SingleClass&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VarLong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##ID编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict&lt;int,string&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test.ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data所有Class类型</t>
-  </si>
-  <si>
-    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ooxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -712,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW5"/>
+  <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -732,7 +765,8 @@
     <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.33203125" customWidth="1"/>
     <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
@@ -742,37 +776,40 @@
     <col min="24" max="24" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.21875" customWidth="1"/>
     <col min="26" max="26" width="2.88671875" customWidth="1"/>
-    <col min="27" max="27" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="2.88671875" customWidth="1"/>
+    <col min="31" max="31" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" customWidth="1"/>
-    <col min="36" max="36" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.33203125" customWidth="1"/>
-    <col min="38" max="38" width="7.33203125" customWidth="1"/>
-    <col min="39" max="39" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.33203125" customWidth="1"/>
+    <col min="42" max="42" width="7.33203125" customWidth="1"/>
+    <col min="43" max="43" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -796,7 +833,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -814,22 +851,16 @@
         <v>2</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>27</v>
@@ -837,23 +868,23 @@
       <c r="AI1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>15</v>
+      <c r="AO1" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>27</v>
@@ -864,28 +895,37 @@
       <c r="AU1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AV1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
@@ -894,30 +934,33 @@
         <v>6</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -944,39 +987,42 @@
         <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AQ3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AT3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AU3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2147483646</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1000</v>
@@ -985,19 +1031,19 @@
         <v>6.5</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <v>1.2</v>
@@ -1005,81 +1051,91 @@
       <c r="K4" s="6" t="b">
         <v>0</v>
       </c>
+      <c r="L4" s="6"/>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R4">
         <v>1.5</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4">
+        <v>1.3</v>
+      </c>
+      <c r="AC4">
+        <v>1.5</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4">
+        <v>999</v>
+      </c>
+      <c r="AG4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL4">
+        <v>11</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO4" s="2"/>
+      <c r="AR4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU4">
+        <v>1.7</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX4" t="s">
         <v>39</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB4">
-        <v>999</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH4">
-        <v>11</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK4" s="2"/>
-      <c r="AN4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ4">
-        <v>1.7</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU4">
+      <c r="AY4">
         <v>1.2</v>
       </c>
-      <c r="AV4" t="b">
+      <c r="AZ4" t="b">
         <v>0</v>
       </c>
-      <c r="AW4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="BA4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1093,19 +1149,19 @@
         <v>5.7</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J5">
         <v>1.2</v>
@@ -1113,69 +1169,200 @@
       <c r="K5" s="6">
         <v>77777777</v>
       </c>
+      <c r="L5" s="6"/>
       <c r="M5" t="s">
         <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R5">
         <v>1.3</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF5">
         <v>111</v>
       </c>
-      <c r="AC5">
-        <v>222</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH5">
+      <c r="AG5">
+        <v>22.2</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL5">
         <v>4</v>
       </c>
-      <c r="AI5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK5" s="3"/>
+      <c r="AM5" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="AN5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ5">
+        <v>50</v>
+      </c>
+      <c r="AO5" s="3"/>
+      <c r="AR5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU5">
         <v>1.6</v>
       </c>
-      <c r="AR5" t="s">
-        <v>54</v>
+      <c r="AV5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>1001</v>
+      </c>
+      <c r="C9">
+        <v>10005</v>
+      </c>
+      <c r="D9">
+        <v>5.7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <v>1.2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>77777777</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10">
+        <v>1.3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="M11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>1.2</v>
+      </c>
+      <c r="N12">
+        <v>3.5</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>22.2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15">
+        <v>1.6</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1187,29 +1374,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV10"/>
+  <dimension ref="A1:AV8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.6640625" customWidth="1"/>
+    <col min="39" max="39" width="30" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1233,7 +1432,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -1241,14 +1440,11 @@
       <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="W1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>13</v>
@@ -1304,25 +1500,25 @@
     </row>
     <row r="2" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
@@ -1331,16 +1527,19 @@
         <v>6</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>17</v>
@@ -1348,13 +1547,13 @@
     </row>
     <row r="3" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -1381,19 +1580,22 @@
         <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="AG3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="AP3" s="1" t="s">
         <v>24</v>
@@ -1422,19 +1624,19 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <v>1.2</v>
@@ -1443,67 +1645,85 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>54</v>
+        <v>79</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R4">
         <v>1.5</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA4">
+        <v>50</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4">
+        <v>1.9</v>
+      </c>
+      <c r="Y4">
+        <v>1.5</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4">
         <v>999</v>
       </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG4">
+      <c r="AC4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH4">
         <v>11</v>
       </c>
-      <c r="AH4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>54</v>
+      <c r="AI4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ4">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>50</v>
       </c>
       <c r="AM4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AN4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AO4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AP4">
         <v>1.7</v>
       </c>
       <c r="AQ4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AR4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AS4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AT4">
         <v>1.2</v>
@@ -1512,153 +1732,39 @@
         <v>0</v>
       </c>
       <c r="AV4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
       <c r="K5" s="6"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AK5" s="2"/>
+      <c r="AF5" s="3"/>
+      <c r="AH5" s="2"/>
     </row>
     <row r="6" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="K6" s="6"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AK6" s="2"/>
-    </row>
-    <row r="7" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-      <c r="K7" s="6"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AK7" s="2"/>
-    </row>
-    <row r="8" spans="1:48" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="P8" s="2"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="AI8" s="9"/>
-      <c r="AK8" s="11"/>
-    </row>
-    <row r="9" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="5"/>
-      <c r="G9" s="3"/>
-      <c r="K9" s="6"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AK9" s="2"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5001</v>
-      </c>
-      <c r="B10">
-        <v>101</v>
-      </c>
-      <c r="C10">
-        <v>10005</v>
-      </c>
-      <c r="D10">
-        <v>6.3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10">
-        <v>1.2</v>
-      </c>
-      <c r="K10" s="6">
-        <v>77777777</v>
-      </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10">
-        <v>1.3</v>
-      </c>
-      <c r="S10" t="s">
-        <v>54</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA10">
-        <v>111</v>
-      </c>
-      <c r="AB10">
-        <v>222</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG10">
-        <v>4</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK10" s="3"/>
-      <c r="AM10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP10">
-        <v>1.6</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>54</v>
-      </c>
+      <c r="AF6" s="3"/>
+      <c r="AH6" s="2"/>
+    </row>
+    <row r="7" spans="1:48" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="K7" s="10"/>
+      <c r="P7" s="2"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="AF7" s="9"/>
+      <c r="AH7" s="11"/>
+    </row>
+    <row r="8" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="K8" s="6"/>
+      <c r="AF8" s="3"/>
+      <c r="AH8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/Example/Csv/AllType/Data所有Class类型.xlsx
+++ b/src/Example/Csv/AllType/Data所有Class类型.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="72" windowWidth="23256" windowHeight="6252"/>
+    <workbookView xWindow="-12" yWindow="72" windowWidth="23256" windowHeight="6252" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="86">
   <si>
     <t>VarString</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,10 +190,6 @@
     <t>Hand</t>
   </si>
   <si>
-    <t>j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list&lt;string&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,6 +324,30 @@
   </si>
   <si>
     <t>1sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check所有类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -803,13 +823,13 @@
   <sheetData>
     <row r="1" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -833,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -851,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>13</v>
@@ -907,10 +927,10 @@
     </row>
     <row r="2" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -940,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>36</v>
@@ -954,13 +974,13 @@
     </row>
     <row r="3" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -987,19 +1007,19 @@
         <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK3" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>29</v>
@@ -1025,22 +1045,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>6.5</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>39</v>
@@ -1053,10 +1073,10 @@
       </c>
       <c r="L4" s="6"/>
       <c r="M4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4" t="s">
         <v>42</v>
@@ -1065,7 +1085,7 @@
         <v>1.5</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>38</v>
@@ -1074,7 +1094,7 @@
         <v>43</v>
       </c>
       <c r="Z4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB4">
         <v>1.3</v>
@@ -1083,7 +1103,7 @@
         <v>1.5</v>
       </c>
       <c r="AD4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF4">
         <v>999</v>
@@ -1092,47 +1112,32 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AH4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AL4">
         <v>11</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AN4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AR4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="AS4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AU4">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AV4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY4">
-        <v>1.2</v>
-      </c>
-      <c r="AZ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
@@ -1143,25 +1148,25 @@
         <v>1001</v>
       </c>
       <c r="C5">
-        <v>10005</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>5.7</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
         <v>63</v>
-      </c>
-      <c r="I5" t="s">
-        <v>64</v>
       </c>
       <c r="J5">
         <v>1.2</v>
@@ -1177,10 +1182,10 @@
         <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="s">
         <v>41</v>
@@ -1189,7 +1194,7 @@
         <v>1.3</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>38</v>
@@ -1198,7 +1203,7 @@
         <v>43</v>
       </c>
       <c r="Z5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB5">
         <v>2</v>
@@ -1207,7 +1212,7 @@
         <v>3</v>
       </c>
       <c r="AD5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF5">
         <v>111</v>
@@ -1216,32 +1221,47 @@
         <v>22.2</v>
       </c>
       <c r="AH5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AL5">
         <v>4</v>
       </c>
       <c r="AM5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AN5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AO5" s="3"/>
       <c r="AR5" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU5">
+        <v>1.7</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW5" t="s">
         <v>47</v>
       </c>
-      <c r="AT5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU5">
-        <v>1.6</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>50</v>
+      <c r="AX5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY5">
+        <v>1.2</v>
+      </c>
+      <c r="AZ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
@@ -1252,25 +1272,25 @@
         <v>1001</v>
       </c>
       <c r="C9">
-        <v>10005</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>5.7</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
         <v>63</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
       </c>
       <c r="J9">
         <v>1.2</v>
@@ -1286,12 +1306,12 @@
         <v>40</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" t="s">
         <v>41</v>
@@ -1300,7 +1320,7 @@
         <v>1.3</v>
       </c>
       <c r="P10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
@@ -1311,7 +1331,7 @@
         <v>43</v>
       </c>
       <c r="O11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
@@ -1322,7 +1342,7 @@
         <v>3.5</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
@@ -1333,7 +1353,7 @@
         <v>22.2</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
@@ -1341,19 +1361,19 @@
         <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" t="s">
         <v>41</v>
@@ -1362,7 +1382,7 @@
         <v>1.6</v>
       </c>
       <c r="Q15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1376,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AR6" sqref="AR6:AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1402,13 +1422,13 @@
   <sheetData>
     <row r="1" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1432,7 +1452,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>5</v>
@@ -1444,7 +1464,7 @@
         <v>9</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>13</v>
@@ -1500,10 +1520,10 @@
     </row>
     <row r="2" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1533,7 +1553,7 @@
         <v>8</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>36</v>
@@ -1547,13 +1567,13 @@
     </row>
     <row r="3" spans="1:48" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -1580,19 +1600,19 @@
         <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>29</v>
@@ -1618,22 +1638,22 @@
         <v>1234</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
         <v>39</v>
@@ -1645,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4" t="s">
         <v>42</v>
@@ -1660,7 +1680,7 @@
         <v>1.5</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>38</v>
@@ -1669,7 +1689,7 @@
         <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X4">
         <v>1.9</v>
@@ -1678,7 +1698,7 @@
         <v>1.5</v>
       </c>
       <c r="Z4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB4">
         <v>999</v>
@@ -1687,28 +1707,28 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AD4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AH4">
         <v>11</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ4">
         <v>5</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AL4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AM4" t="s">
         <v>42</v>
       </c>
       <c r="AN4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO4" t="s">
         <v>42</v>
@@ -1717,10 +1737,10 @@
         <v>1.7</v>
       </c>
       <c r="AQ4" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AR4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AS4" t="s">
         <v>39</v>
@@ -1732,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="AV4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
